--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,69 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cptkang/AIOps/NWAgent/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EBC967-C086-AE4D-A45A-FC1E568255C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="IP 주소 할당 정보를 정리한 excel 파일을 찾거나 " sheetId="1" r:id="rId4"/>
+    <sheet name="IP 주소 할당 정보를 정리한 excel 파일을 찾거나 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>클래스 (관용적)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IP 주소 대역</t>
   </si>
   <si>
-    <t>서브넷 마스크</t>
-  </si>
-  <si>
-    <t>Class A</t>
-  </si>
-  <si>
-    <t>10.0.0.0 ~ 10.255.255.255</t>
-  </si>
-  <si>
-    <t>255.0.0.0 (/8)</t>
-  </si>
-  <si>
-    <t>Class B</t>
-  </si>
-  <si>
-    <t>172.16.0.0 ~ 172.31.255.255</t>
-  </si>
-  <si>
-    <t>255.240.0.0 (/12)</t>
-  </si>
-  <si>
-    <t>Class C</t>
-  </si>
-  <si>
-    <t>192.168.0.0 ~ 192.168.255.255</t>
-  </si>
-  <si>
-    <t>255.255.0.0 (/16)</t>
+    <t>국민은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민생명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.136.0.0/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.136.32.0/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.136.64.0/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,36 +91,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -290,64 +318,65 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -8,56 +8,1524 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cptkang/AIOps/NWAgent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EBC967-C086-AE4D-A45A-FC1E568255C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF59AC-B1CA-4049-9225-C972F707F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="920" windowWidth="30220" windowHeight="19820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP 주소 할당 정보를 정리한 excel 파일을 찾거나 " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>IP 주소 대역</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>국민은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>국민카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민생명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.136.0.0/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.136.32.0/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.136.64.0/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사(회사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치구분</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터구분</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경구분</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융지주</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이징</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.132.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.132.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP범위2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP범위1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.32.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.32.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.136.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.136.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.36.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.36.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.133.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.33.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.133.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.33.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.126.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.26.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.126.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.26.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.123.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.123.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.23.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.23.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.116.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.116.127.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.16.64.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.16.79.0/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금융</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회사를 구분하기 위한 코드 값이다. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IDC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금융</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위치구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DMZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내부망을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구분하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>환경구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스테이징</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>운영을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구분하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>계열사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>센터구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위치구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>환경구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할당된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>범위의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계열사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할당된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -72,6 +1540,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -84,6 +1566,33 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,10 +1615,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -328,55 +1840,408 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A928936-B96F-7B42-B6AC-A6F583FEB76C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>